--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.952602191066213</v>
+        <v>0.1000065</v>
       </c>
       <c r="H2">
-        <v>0.952602191066213</v>
+        <v>0.200013</v>
       </c>
       <c r="I2">
-        <v>0.2266776702352141</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J2">
-        <v>0.2266776702352141</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.11238085195494</v>
+        <v>1.124414</v>
       </c>
       <c r="N2">
-        <v>1.11238085195494</v>
+        <v>2.248828</v>
       </c>
       <c r="O2">
-        <v>0.1174145446666237</v>
+        <v>0.1096545122942886</v>
       </c>
       <c r="P2">
-        <v>0.1174145446666237</v>
+        <v>0.08772804550878611</v>
       </c>
       <c r="Q2">
-        <v>1.059656436872377</v>
+        <v>0.112448708691</v>
       </c>
       <c r="R2">
-        <v>1.059656436872377</v>
+        <v>0.449794834764</v>
       </c>
       <c r="S2">
-        <v>0.02661525543675874</v>
+        <v>0.002028437590994553</v>
       </c>
       <c r="T2">
-        <v>0.02661525543675874</v>
+        <v>0.001449488129867534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.952602191066213</v>
+        <v>0.1000065</v>
       </c>
       <c r="H3">
-        <v>0.952602191066213</v>
+        <v>0.200013</v>
       </c>
       <c r="I3">
-        <v>0.2266776702352141</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J3">
-        <v>0.2266776702352141</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.726797857638681</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N3">
-        <v>0.726797857638681</v>
+        <v>2.198273</v>
       </c>
       <c r="O3">
-        <v>0.07671530786362377</v>
+        <v>0.07145960879910269</v>
       </c>
       <c r="P3">
-        <v>0.07671530786362377</v>
+        <v>0.08575586651568541</v>
       </c>
       <c r="Q3">
-        <v>0.6923492316488371</v>
+        <v>0.07328052959150001</v>
       </c>
       <c r="R3">
-        <v>0.6923492316488371</v>
+        <v>0.439683177549</v>
       </c>
       <c r="S3">
-        <v>0.01738964725790344</v>
+        <v>0.001321891399570019</v>
       </c>
       <c r="T3">
-        <v>0.01738964725790344</v>
+        <v>0.001416902768779246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.952602191066213</v>
+        <v>0.1000065</v>
       </c>
       <c r="H4">
-        <v>0.952602191066213</v>
+        <v>0.200013</v>
       </c>
       <c r="I4">
-        <v>0.2266776702352141</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J4">
-        <v>0.2266776702352141</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.553249493266279</v>
+        <v>0.9572023333333334</v>
       </c>
       <c r="N4">
-        <v>0.553249493266279</v>
+        <v>2.871607</v>
       </c>
       <c r="O4">
-        <v>0.05839684962640098</v>
+        <v>0.09334778384885083</v>
       </c>
       <c r="P4">
-        <v>0.05839684962640098</v>
+        <v>0.1120230046848175</v>
       </c>
       <c r="Q4">
-        <v>0.5270266794917294</v>
+        <v>0.09572645514850001</v>
       </c>
       <c r="R4">
-        <v>0.5270266794917294</v>
+        <v>0.574358730891</v>
       </c>
       <c r="S4">
-        <v>0.01323726182238871</v>
+        <v>0.001726788527287131</v>
       </c>
       <c r="T4">
-        <v>0.01323726182238871</v>
+        <v>0.001850902007687791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.952602191066213</v>
+        <v>0.1000065</v>
       </c>
       <c r="H5">
-        <v>0.952602191066213</v>
+        <v>0.200013</v>
       </c>
       <c r="I5">
-        <v>0.2266776702352141</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J5">
-        <v>0.2266776702352141</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.958431054229549</v>
+        <v>1.048287</v>
       </c>
       <c r="N5">
-        <v>0.958431054229549</v>
+        <v>3.144861</v>
       </c>
       <c r="O5">
-        <v>0.1011647635150709</v>
+        <v>0.1022304949328654</v>
       </c>
       <c r="P5">
-        <v>0.1011647635150709</v>
+        <v>0.1226827969621539</v>
       </c>
       <c r="Q5">
-        <v>0.9130035222449688</v>
+        <v>0.1048355138655</v>
       </c>
       <c r="R5">
-        <v>0.9130035222449688</v>
+        <v>0.629013083193</v>
       </c>
       <c r="S5">
-        <v>0.02293179290349267</v>
+        <v>0.001891104839454958</v>
       </c>
       <c r="T5">
-        <v>0.02293179290349267</v>
+        <v>0.002027028607605091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.952602191066213</v>
+        <v>0.1000065</v>
       </c>
       <c r="H6">
-        <v>0.952602191066213</v>
+        <v>0.200013</v>
       </c>
       <c r="I6">
-        <v>0.2266776702352141</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J6">
-        <v>0.2266776702352141</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.27013660713892</v>
+        <v>2.387532666666667</v>
       </c>
       <c r="N6">
-        <v>2.27013660713892</v>
+        <v>7.162598</v>
       </c>
       <c r="O6">
-        <v>0.2396185223701131</v>
+        <v>0.2328357083334214</v>
       </c>
       <c r="P6">
-        <v>0.2396185223701131</v>
+        <v>0.2794169777791545</v>
       </c>
       <c r="Q6">
-        <v>2.162537105980154</v>
+        <v>0.238768785629</v>
       </c>
       <c r="R6">
-        <v>2.162537105980154</v>
+        <v>1.432612713774</v>
       </c>
       <c r="S6">
-        <v>0.05431616839606177</v>
+        <v>0.004307097751178955</v>
       </c>
       <c r="T6">
-        <v>0.05431616839606177</v>
+        <v>0.004616671786376255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.952602191066213</v>
+        <v>0.1000065</v>
       </c>
       <c r="H7">
-        <v>0.952602191066213</v>
+        <v>0.200013</v>
       </c>
       <c r="I7">
-        <v>0.2266776702352141</v>
+        <v>0.018498441592177</v>
       </c>
       <c r="J7">
-        <v>0.2266776702352141</v>
+        <v>0.01652251707491153</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.85296543343994</v>
+        <v>4.003958</v>
       </c>
       <c r="N7">
-        <v>3.85296543343994</v>
+        <v>8.007916</v>
       </c>
       <c r="O7">
-        <v>0.4066900119581674</v>
+        <v>0.3904718917914712</v>
       </c>
       <c r="P7">
-        <v>0.4066900119581674</v>
+        <v>0.3123933085494028</v>
       </c>
       <c r="Q7">
-        <v>3.670343313997268</v>
+        <v>0.400421825727</v>
       </c>
       <c r="R7">
-        <v>3.670343313997268</v>
+        <v>1.601687302908</v>
       </c>
       <c r="S7">
-        <v>0.09218754441860874</v>
+        <v>0.007223121483691387</v>
       </c>
       <c r="T7">
-        <v>0.09218754441860874</v>
+        <v>0.005161523774595613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.2498505255059</v>
+        <v>0.9926850000000002</v>
       </c>
       <c r="H8">
-        <v>3.2498505255059</v>
+        <v>2.978055</v>
       </c>
       <c r="I8">
-        <v>0.773322329764786</v>
+        <v>0.1836193196635242</v>
       </c>
       <c r="J8">
-        <v>0.773322329764786</v>
+        <v>0.2460088323635246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.11238085195494</v>
+        <v>1.124414</v>
       </c>
       <c r="N8">
-        <v>1.11238085195494</v>
+        <v>2.248828</v>
       </c>
       <c r="O8">
-        <v>0.1174145446666237</v>
+        <v>0.1096545122942886</v>
       </c>
       <c r="P8">
-        <v>0.1174145446666237</v>
+        <v>0.08772804550878611</v>
       </c>
       <c r="Q8">
-        <v>3.615071496288463</v>
+        <v>1.11618891159</v>
       </c>
       <c r="R8">
-        <v>3.615071496288463</v>
+        <v>6.697133469540001</v>
       </c>
       <c r="S8">
-        <v>0.09079928922986497</v>
+        <v>0.02013468694551282</v>
       </c>
       <c r="T8">
-        <v>0.09079928922986497</v>
+        <v>0.02158187404115063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.2498505255059</v>
+        <v>0.9926850000000002</v>
       </c>
       <c r="H9">
-        <v>3.2498505255059</v>
+        <v>2.978055</v>
       </c>
       <c r="I9">
-        <v>0.773322329764786</v>
+        <v>0.1836193196635242</v>
       </c>
       <c r="J9">
-        <v>0.773322329764786</v>
+        <v>0.2460088323635246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.726797857638681</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N9">
-        <v>0.726797857638681</v>
+        <v>2.198273</v>
       </c>
       <c r="O9">
-        <v>0.07671530786362377</v>
+        <v>0.07145960879910269</v>
       </c>
       <c r="P9">
-        <v>0.07671530786362377</v>
+        <v>0.08575586651568541</v>
       </c>
       <c r="Q9">
-        <v>2.36198439958363</v>
+        <v>0.7273975443350001</v>
       </c>
       <c r="R9">
-        <v>2.36198439958363</v>
+        <v>6.546577899015002</v>
       </c>
       <c r="S9">
-        <v>0.05932566060572034</v>
+        <v>0.01312136475111282</v>
       </c>
       <c r="T9">
-        <v>0.05932566060572034</v>
+        <v>0.02109670058984605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.2498505255059</v>
+        <v>0.9926850000000002</v>
       </c>
       <c r="H10">
-        <v>3.2498505255059</v>
+        <v>2.978055</v>
       </c>
       <c r="I10">
-        <v>0.773322329764786</v>
+        <v>0.1836193196635242</v>
       </c>
       <c r="J10">
-        <v>0.773322329764786</v>
+        <v>0.2460088323635246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.553249493266279</v>
+        <v>0.9572023333333334</v>
       </c>
       <c r="N10">
-        <v>0.553249493266279</v>
+        <v>2.871607</v>
       </c>
       <c r="O10">
-        <v>0.05839684962640098</v>
+        <v>0.09334778384885083</v>
       </c>
       <c r="P10">
-        <v>0.05839684962640098</v>
+        <v>0.1120230046848175</v>
       </c>
       <c r="Q10">
-        <v>1.79797815642729</v>
+        <v>0.9502003982650001</v>
       </c>
       <c r="R10">
-        <v>1.79797815642729</v>
+        <v>8.551803584385</v>
       </c>
       <c r="S10">
-        <v>0.04515958780401228</v>
+        <v>0.0171404565624237</v>
       </c>
       <c r="T10">
-        <v>0.04515958780401228</v>
+        <v>0.0275586485803656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.2498505255059</v>
+        <v>0.9926850000000002</v>
       </c>
       <c r="H11">
-        <v>3.2498505255059</v>
+        <v>2.978055</v>
       </c>
       <c r="I11">
-        <v>0.773322329764786</v>
+        <v>0.1836193196635242</v>
       </c>
       <c r="J11">
-        <v>0.773322329764786</v>
+        <v>0.2460088323635246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.958431054229549</v>
+        <v>1.048287</v>
       </c>
       <c r="N11">
-        <v>0.958431054229549</v>
+        <v>3.144861</v>
       </c>
       <c r="O11">
-        <v>0.1011647635150709</v>
+        <v>0.1022304949328654</v>
       </c>
       <c r="P11">
-        <v>0.1011647635150709</v>
+        <v>0.1226827969621539</v>
       </c>
       <c r="Q11">
-        <v>3.114757665249074</v>
+        <v>1.040618780595</v>
       </c>
       <c r="R11">
-        <v>3.114757665249074</v>
+        <v>9.365569025355001</v>
       </c>
       <c r="S11">
-        <v>0.07823297061157826</v>
+        <v>0.0187714939284381</v>
       </c>
       <c r="T11">
-        <v>0.07823297061157826</v>
+        <v>0.03018105163175084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.2498505255059</v>
+        <v>0.9926850000000002</v>
       </c>
       <c r="H12">
-        <v>3.2498505255059</v>
+        <v>2.978055</v>
       </c>
       <c r="I12">
-        <v>0.773322329764786</v>
+        <v>0.1836193196635242</v>
       </c>
       <c r="J12">
-        <v>0.773322329764786</v>
+        <v>0.2460088323635246</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.27013660713892</v>
+        <v>2.387532666666667</v>
       </c>
       <c r="N12">
-        <v>2.27013660713892</v>
+        <v>7.162598</v>
       </c>
       <c r="O12">
-        <v>0.2396185223701131</v>
+        <v>0.2328357083334214</v>
       </c>
       <c r="P12">
-        <v>0.2396185223701131</v>
+        <v>0.2794169777791545</v>
       </c>
       <c r="Q12">
-        <v>7.3776046456806</v>
+        <v>2.37006786521</v>
       </c>
       <c r="R12">
-        <v>7.3776046456806</v>
+        <v>21.33061078689</v>
       </c>
       <c r="S12">
-        <v>0.1853023539740513</v>
+        <v>0.04275313435755758</v>
       </c>
       <c r="T12">
-        <v>0.1853023539740513</v>
+        <v>0.0687390444459947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9926850000000002</v>
+      </c>
+      <c r="H13">
+        <v>2.978055</v>
+      </c>
+      <c r="I13">
+        <v>0.1836193196635242</v>
+      </c>
+      <c r="J13">
+        <v>0.2460088323635246</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.003958</v>
+      </c>
+      <c r="N13">
+        <v>8.007916</v>
+      </c>
+      <c r="O13">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P13">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q13">
+        <v>3.97466904723</v>
+      </c>
+      <c r="R13">
+        <v>23.84801428338</v>
+      </c>
+      <c r="S13">
+        <v>0.07169818311847916</v>
+      </c>
+      <c r="T13">
+        <v>0.07685151307441686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.332048</v>
+      </c>
+      <c r="I14">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J14">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.124414</v>
+      </c>
+      <c r="N14">
+        <v>2.248828</v>
+      </c>
+      <c r="O14">
+        <v>0.1096545122942886</v>
+      </c>
+      <c r="P14">
+        <v>0.08772804550878611</v>
+      </c>
+      <c r="Q14">
+        <v>0.1244531399573333</v>
+      </c>
+      <c r="R14">
+        <v>0.746718839744</v>
+      </c>
+      <c r="S14">
+        <v>0.002244982893493788</v>
+      </c>
+      <c r="T14">
+        <v>0.002406341760516842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.332048</v>
+      </c>
+      <c r="I15">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J15">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7327576666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.198273</v>
+      </c>
+      <c r="O15">
+        <v>0.07145960879910269</v>
+      </c>
+      <c r="P15">
+        <v>0.08575586651568541</v>
+      </c>
+      <c r="Q15">
+        <v>0.08110357256711112</v>
+      </c>
+      <c r="R15">
+        <v>0.7299321531040002</v>
+      </c>
+      <c r="S15">
+        <v>0.001463009555860288</v>
+      </c>
+      <c r="T15">
+        <v>0.002352245756863859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.332048</v>
+      </c>
+      <c r="I16">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J16">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9572023333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.871607</v>
+      </c>
+      <c r="O16">
+        <v>0.09334778384885083</v>
+      </c>
+      <c r="P16">
+        <v>0.1120230046848175</v>
+      </c>
+      <c r="Q16">
+        <v>0.1059457067928889</v>
+      </c>
+      <c r="R16">
+        <v>0.953511361136</v>
+      </c>
+      <c r="S16">
+        <v>0.001911131366156657</v>
+      </c>
+      <c r="T16">
+        <v>0.003072741821025212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.332048</v>
+      </c>
+      <c r="I17">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J17">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.048287</v>
+      </c>
+      <c r="N17">
+        <v>3.144861</v>
+      </c>
+      <c r="O17">
+        <v>0.1022304949328654</v>
+      </c>
+      <c r="P17">
+        <v>0.1226827969621539</v>
+      </c>
+      <c r="Q17">
+        <v>0.116027200592</v>
+      </c>
+      <c r="R17">
+        <v>1.044244805328</v>
+      </c>
+      <c r="S17">
+        <v>0.002092989221471737</v>
+      </c>
+      <c r="T17">
+        <v>0.003365135241699567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.332048</v>
+      </c>
+      <c r="I18">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J18">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.387532666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.162598</v>
+      </c>
+      <c r="O18">
+        <v>0.2328357083334214</v>
+      </c>
+      <c r="P18">
+        <v>0.2794169777791545</v>
+      </c>
+      <c r="Q18">
+        <v>0.2642584823004444</v>
+      </c>
+      <c r="R18">
+        <v>2.378326340704</v>
+      </c>
+      <c r="S18">
+        <v>0.004766900798393004</v>
+      </c>
+      <c r="T18">
+        <v>0.007664284988089087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1106826666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.332048</v>
+      </c>
+      <c r="I19">
+        <v>0.02047323768554773</v>
+      </c>
+      <c r="J19">
+        <v>0.02742956082699736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.003958</v>
+      </c>
+      <c r="N19">
+        <v>8.007916</v>
+      </c>
+      <c r="O19">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P19">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q19">
+        <v>0.4431687486613333</v>
+      </c>
+      <c r="R19">
+        <v>2.659012491968</v>
+      </c>
+      <c r="S19">
+        <v>0.007994223850172266</v>
+      </c>
+      <c r="T19">
+        <v>0.008568811258802798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.271006</v>
+      </c>
+      <c r="I20">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J20">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.124414</v>
+      </c>
+      <c r="N20">
+        <v>2.248828</v>
+      </c>
+      <c r="O20">
+        <v>0.1096545122942886</v>
+      </c>
+      <c r="P20">
+        <v>0.08772804550878611</v>
+      </c>
+      <c r="Q20">
+        <v>0.1015743134946667</v>
+      </c>
+      <c r="R20">
+        <v>0.6094458809680001</v>
+      </c>
+      <c r="S20">
+        <v>0.001832276761294082</v>
+      </c>
+      <c r="T20">
+        <v>0.001963972242418648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.2498505255059</v>
-      </c>
-      <c r="H13">
-        <v>3.2498505255059</v>
-      </c>
-      <c r="I13">
-        <v>0.773322329764786</v>
-      </c>
-      <c r="J13">
-        <v>0.773322329764786</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.85296543343994</v>
-      </c>
-      <c r="N13">
-        <v>3.85296543343994</v>
-      </c>
-      <c r="O13">
-        <v>0.4066900119581674</v>
-      </c>
-      <c r="P13">
-        <v>0.4066900119581674</v>
-      </c>
-      <c r="Q13">
-        <v>12.52156173862086</v>
-      </c>
-      <c r="R13">
-        <v>12.52156173862086</v>
-      </c>
-      <c r="S13">
-        <v>0.3145024675395587</v>
-      </c>
-      <c r="T13">
-        <v>0.3145024675395587</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.271006</v>
+      </c>
+      <c r="I21">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J21">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7327576666666668</v>
+      </c>
+      <c r="N21">
+        <v>2.198273</v>
+      </c>
+      <c r="O21">
+        <v>0.07145960879910269</v>
+      </c>
+      <c r="P21">
+        <v>0.08575586651568541</v>
+      </c>
+      <c r="Q21">
+        <v>0.0661939080708889</v>
+      </c>
+      <c r="R21">
+        <v>0.5957451726380002</v>
+      </c>
+      <c r="S21">
+        <v>0.001194057388375997</v>
+      </c>
+      <c r="T21">
+        <v>0.001919820970415865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.271006</v>
+      </c>
+      <c r="I22">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J22">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9572023333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.871607</v>
+      </c>
+      <c r="O22">
+        <v>0.09334778384885083</v>
+      </c>
+      <c r="P22">
+        <v>0.1120230046848175</v>
+      </c>
+      <c r="Q22">
+        <v>0.08646919184911112</v>
+      </c>
+      <c r="R22">
+        <v>0.7782227266420001</v>
+      </c>
+      <c r="S22">
+        <v>0.001559798785165551</v>
+      </c>
+      <c r="T22">
+        <v>0.00250786473626933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.271006</v>
+      </c>
+      <c r="I23">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J23">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.048287</v>
+      </c>
+      <c r="N23">
+        <v>3.144861</v>
+      </c>
+      <c r="O23">
+        <v>0.1022304949328654</v>
+      </c>
+      <c r="P23">
+        <v>0.1226827969621539</v>
+      </c>
+      <c r="Q23">
+        <v>0.094697355574</v>
+      </c>
+      <c r="R23">
+        <v>0.852276200166</v>
+      </c>
+      <c r="S23">
+        <v>0.001708224825790758</v>
+      </c>
+      <c r="T23">
+        <v>0.002746506051269795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.271006</v>
+      </c>
+      <c r="I24">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J24">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.387532666666667</v>
+      </c>
+      <c r="N24">
+        <v>7.162598</v>
+      </c>
+      <c r="O24">
+        <v>0.2328357083334214</v>
+      </c>
+      <c r="P24">
+        <v>0.2794169777791545</v>
+      </c>
+      <c r="Q24">
+        <v>0.2156785592875556</v>
+      </c>
+      <c r="R24">
+        <v>1.941107033588</v>
+      </c>
+      <c r="S24">
+        <v>0.003890578222935522</v>
+      </c>
+      <c r="T24">
+        <v>0.006255322174752058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.09033533333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.271006</v>
+      </c>
+      <c r="I25">
+        <v>0.01670954275348609</v>
+      </c>
+      <c r="J25">
+        <v>0.02238705115369238</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.003958</v>
+      </c>
+      <c r="N25">
+        <v>8.007916</v>
+      </c>
+      <c r="O25">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P25">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q25">
+        <v>0.3616988805826667</v>
+      </c>
+      <c r="R25">
+        <v>2.170193283496</v>
+      </c>
+      <c r="S25">
+        <v>0.006524606769924182</v>
+      </c>
+      <c r="T25">
+        <v>0.006993564978566687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.298058</v>
+      </c>
+      <c r="I26">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J26">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.124414</v>
+      </c>
+      <c r="N26">
+        <v>2.248828</v>
+      </c>
+      <c r="O26">
+        <v>0.1096545122942886</v>
+      </c>
+      <c r="P26">
+        <v>0.08772804550878611</v>
+      </c>
+      <c r="Q26">
+        <v>0.1117135293373333</v>
+      </c>
+      <c r="R26">
+        <v>0.6702811760239999</v>
+      </c>
+      <c r="S26">
+        <v>0.002015175851891809</v>
+      </c>
+      <c r="T26">
+        <v>0.002160017263938132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.298058</v>
+      </c>
+      <c r="I27">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J27">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.7327576666666668</v>
+      </c>
+      <c r="N27">
+        <v>2.198273</v>
+      </c>
+      <c r="O27">
+        <v>0.07145960879910269</v>
+      </c>
+      <c r="P27">
+        <v>0.08575586651568541</v>
+      </c>
+      <c r="Q27">
+        <v>0.07280142820377777</v>
+      </c>
+      <c r="R27">
+        <v>0.6552128538340001</v>
+      </c>
+      <c r="S27">
+        <v>0.001313248994725478</v>
+      </c>
+      <c r="T27">
+        <v>0.002111458782463162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.298058</v>
+      </c>
+      <c r="I28">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J28">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.9572023333333334</v>
+      </c>
+      <c r="N28">
+        <v>2.871607</v>
+      </c>
+      <c r="O28">
+        <v>0.09334778384885083</v>
+      </c>
+      <c r="P28">
+        <v>0.1120230046848175</v>
+      </c>
+      <c r="Q28">
+        <v>0.09510060435622222</v>
+      </c>
+      <c r="R28">
+        <v>0.8559054392059999</v>
+      </c>
+      <c r="S28">
+        <v>0.001715498942122587</v>
+      </c>
+      <c r="T28">
+        <v>0.002758201469941492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.298058</v>
+      </c>
+      <c r="I29">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J29">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.048287</v>
+      </c>
+      <c r="N29">
+        <v>3.144861</v>
+      </c>
+      <c r="O29">
+        <v>0.1022304949328654</v>
+      </c>
+      <c r="P29">
+        <v>0.1226827969621539</v>
+      </c>
+      <c r="Q29">
+        <v>0.104150108882</v>
+      </c>
+      <c r="R29">
+        <v>0.9373509799379999</v>
+      </c>
+      <c r="S29">
+        <v>0.001878740969297882</v>
+      </c>
+      <c r="T29">
+        <v>0.003020664120459962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.298058</v>
+      </c>
+      <c r="I30">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J30">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.387532666666667</v>
+      </c>
+      <c r="N30">
+        <v>7.162598</v>
+      </c>
+      <c r="O30">
+        <v>0.2328357083334214</v>
+      </c>
+      <c r="P30">
+        <v>0.2794169777791545</v>
+      </c>
+      <c r="Q30">
+        <v>0.2372077371871111</v>
+      </c>
+      <c r="R30">
+        <v>2.134869634684</v>
+      </c>
+      <c r="S30">
+        <v>0.004278938340744175</v>
+      </c>
+      <c r="T30">
+        <v>0.006879732613898766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.09935266666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.298058</v>
+      </c>
+      <c r="I31">
+        <v>0.0183775004760727</v>
+      </c>
+      <c r="J31">
+        <v>0.02462174155836861</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.003958</v>
+      </c>
+      <c r="N31">
+        <v>8.007916</v>
+      </c>
+      <c r="O31">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P31">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q31">
+        <v>0.3978039045213333</v>
+      </c>
+      <c r="R31">
+        <v>2.386823427128</v>
+      </c>
+      <c r="S31">
+        <v>0.007175897377290768</v>
+      </c>
+      <c r="T31">
+        <v>0.007691667307667098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.01315</v>
+      </c>
+      <c r="H32">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J32">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.124414</v>
+      </c>
+      <c r="N32">
+        <v>2.248828</v>
+      </c>
+      <c r="O32">
+        <v>0.1096545122942886</v>
+      </c>
+      <c r="P32">
+        <v>0.08772804550878611</v>
+      </c>
+      <c r="Q32">
+        <v>4.512442044099999</v>
+      </c>
+      <c r="R32">
+        <v>18.0497681764</v>
+      </c>
+      <c r="S32">
+        <v>0.08139895225110158</v>
+      </c>
+      <c r="T32">
+        <v>0.05816635207089434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.01315</v>
+      </c>
+      <c r="H33">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J33">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.7327576666666668</v>
+      </c>
+      <c r="N33">
+        <v>2.198273</v>
+      </c>
+      <c r="O33">
+        <v>0.07145960879910269</v>
+      </c>
+      <c r="P33">
+        <v>0.08575586651568541</v>
+      </c>
+      <c r="Q33">
+        <v>2.940666429983333</v>
+      </c>
+      <c r="R33">
+        <v>17.6439985799</v>
+      </c>
+      <c r="S33">
+        <v>0.05304603670945809</v>
+      </c>
+      <c r="T33">
+        <v>0.05685873764731723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.01315</v>
+      </c>
+      <c r="H34">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J34">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.9572023333333334</v>
+      </c>
+      <c r="N34">
+        <v>2.871607</v>
+      </c>
+      <c r="O34">
+        <v>0.09334778384885083</v>
+      </c>
+      <c r="P34">
+        <v>0.1120230046848175</v>
+      </c>
+      <c r="Q34">
+        <v>3.841396544016666</v>
+      </c>
+      <c r="R34">
+        <v>23.0483792641</v>
+      </c>
+      <c r="S34">
+        <v>0.0692941096656952</v>
+      </c>
+      <c r="T34">
+        <v>0.07427464606952806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.01315</v>
+      </c>
+      <c r="H35">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J35">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.048287</v>
+      </c>
+      <c r="N35">
+        <v>3.144861</v>
+      </c>
+      <c r="O35">
+        <v>0.1022304949328654</v>
+      </c>
+      <c r="P35">
+        <v>0.1226827969621539</v>
+      </c>
+      <c r="Q35">
+        <v>4.206932974049999</v>
+      </c>
+      <c r="R35">
+        <v>25.2415978443</v>
+      </c>
+      <c r="S35">
+        <v>0.07588794114841198</v>
+      </c>
+      <c r="T35">
+        <v>0.08134241130936862</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.01315</v>
+      </c>
+      <c r="H36">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J36">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.387532666666667</v>
+      </c>
+      <c r="N36">
+        <v>7.162598</v>
+      </c>
+      <c r="O36">
+        <v>0.2328357083334214</v>
+      </c>
+      <c r="P36">
+        <v>0.2794169777791545</v>
+      </c>
+      <c r="Q36">
+        <v>9.581526721233331</v>
+      </c>
+      <c r="R36">
+        <v>57.48916032739999</v>
+      </c>
+      <c r="S36">
+        <v>0.1728390588626122</v>
+      </c>
+      <c r="T36">
+        <v>0.1852619217700436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.01315</v>
+      </c>
+      <c r="H37">
+        <v>8.026299999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.7423219578291923</v>
+      </c>
+      <c r="J37">
+        <v>0.6630302970225055</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.003958</v>
+      </c>
+      <c r="N37">
+        <v>8.007916</v>
+      </c>
+      <c r="O37">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P37">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q37">
+        <v>16.0684840477</v>
+      </c>
+      <c r="R37">
+        <v>64.27393619079999</v>
+      </c>
+      <c r="S37">
+        <v>0.2898558591919134</v>
+      </c>
+      <c r="T37">
+        <v>0.2071262281553537</v>
       </c>
     </row>
   </sheetData>
